--- a/documents/11.SprintBacklog.xlsx
+++ b/documents/11.SprintBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duc Phan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TotNghiep\KLTNT122025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29794089-D618-4890-86FA-241836EDC656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D9064-1082-4B27-A9D0-45970B7D872D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -467,9 +467,6 @@
     <t>Giao diện quản lý người dùng</t>
   </si>
   <si>
-    <t>Giao diện quản lý bàn</t>
-  </si>
-  <si>
     <t>Giao diện quản lý đặt hàng</t>
   </si>
   <si>
@@ -489,9 +486,6 @@
   </si>
   <si>
     <t>Thiết kế trường kiểm thử cho quản lý người dùng</t>
-  </si>
-  <si>
-    <t>Thiết kế trường kiểm thử cho quản lý bàn</t>
   </si>
   <si>
     <t>Thiết kế trường kiểm thử choquản lý đặt hàng</t>
@@ -515,9 +509,6 @@
     <t>Thiết kế front-end cho quản lý người dùng</t>
   </si>
   <si>
-    <t>Thiết kế front-end cho quản lý bàn</t>
-  </si>
-  <si>
     <t>Thiết kế front-end cho quản lý đặt hàng</t>
   </si>
   <si>
@@ -537,9 +528,6 @@
   </si>
   <si>
     <t>Code back-end cho quản lý người dùng</t>
-  </si>
-  <si>
-    <t>Code back-end cho quản lý bàn</t>
   </si>
   <si>
     <t>Code back-end cho quản lý đặt hàng</t>
@@ -563,9 +551,6 @@
     <t>Kiểm tra quản lý người dùng</t>
   </si>
   <si>
-    <t>Kiểm tra quản lý bàn</t>
-  </si>
-  <si>
     <t>Kiểm tra quản lý đặt hàng</t>
   </si>
   <si>
@@ -587,9 +572,6 @@
     <t>Sửa lỗi quản lý người dùng</t>
   </si>
   <si>
-    <t>Sửa lỗi quản lý bàn</t>
-  </si>
-  <si>
     <t>Sửa lỗi quản lý đặt hàng</t>
   </si>
   <si>
@@ -609,9 +591,6 @@
   </si>
   <si>
     <t>Kiểm tra lại quản lý người dùng</t>
-  </si>
-  <si>
-    <t>Kiểm tra lại quản lý bàn</t>
   </si>
   <si>
     <t>Kiểm tra lại quản lý đặt hàng</t>
@@ -750,6 +729,27 @@
   </si>
   <si>
     <t>Đạt, Tấn</t>
+  </si>
+  <si>
+    <t>Giao diện quản lý phiếu nhập kho</t>
+  </si>
+  <si>
+    <t>Thiết kế trường kiểm thử cho quản lý phiếu nhập kho</t>
+  </si>
+  <si>
+    <t>Thiết kế front-end cho quản lý phiếu nhập kho</t>
+  </si>
+  <si>
+    <t>Code back-end cho quản lý phiếu nhập kho</t>
+  </si>
+  <si>
+    <t>Kiểm tra quản lý phiếu nhập kho</t>
+  </si>
+  <si>
+    <t>Sửa lỗi quản lý phiếu nhập kho</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại quản lý phiếu kho</t>
   </si>
 </sst>
 </file>
@@ -1562,19 +1562,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>212</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>182.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.5</c:v>
+                  <c:v>175.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>149</c:v>
@@ -1601,25 +1601,25 @@
                   <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>127</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>123</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>108</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98.5</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>84.5</c:v>
@@ -1752,19 +1752,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>214</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>150</c:v>
@@ -1803,13 +1803,13 @@
                   <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>106</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>98.5</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>85</c:v>
@@ -2115,19 +2115,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>212</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>182.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.5</c:v>
+                  <c:v>175.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>149</c:v>
@@ -2154,25 +2154,25 @@
                   <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>127</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>123</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>108</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98.5</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>84.5</c:v>
@@ -2326,19 +2326,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>214</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>150</c:v>
@@ -2377,13 +2377,13 @@
                   <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>106</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>98.5</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>85</c:v>
@@ -2754,79 +2754,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>186</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.5</c:v>
+                  <c:v>170.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>122</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>116</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>103</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>66</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>25</c:v>
@@ -2956,79 +2956,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>186</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>122</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>116</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>103</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>67</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>25</c:v>
@@ -3181,7 +3181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-001"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3204,6 +3204,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Thực tế</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3218,7 +3221,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$I$15:$U$15</c:f>
+              <c:f>'Sprint 3'!$J$15:$V$15</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3266,33 +3269,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$I$42:$U$42</c:f>
+              <c:f>'Sprint 3'!$J$42:$V$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>32</c:v>
@@ -3322,6 +3325,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Ước tính</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3336,7 +3342,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 3'!$I$15:$U$15</c:f>
+              <c:f>'Sprint 3'!$J$15:$V$15</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3384,33 +3390,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$I$43:$U$43</c:f>
+              <c:f>'Sprint 3'!$J$43:$V$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>30</c:v>
@@ -3569,10 +3575,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.89549549984133614"/>
-          <c:y val="0.34173355346710688"/>
-          <c:w val="8.8522765477691334E-2"/>
-          <c:h val="0.19858902717805435"/>
+          <c:x val="0.90557224487708843"/>
+          <c:y val="0.35476900774920883"/>
+          <c:w val="7.2847764441503787E-2"/>
+          <c:h val="0.1855536846419778"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5171,8 +5177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+    <sheetView topLeftCell="A77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110:F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -5309,11 +5315,11 @@
       </c>
       <c r="D9" s="3">
         <f ca="1">SUMIF($E$16:$F$112,"Đức",$G$16:$G$112) +SUMIF($E$16:$F$112,"*Đức*",$G$16:$G$112)/2 -SUMIF($E$16:$F$112,"Đức",$G$16:$G$112)/2 +SUMIF($E$16:$F$112,"All team",$G$16:$G$112)/5</f>
-        <v>39.299999999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">SUMIF($E$16:$F$112,"Đức",$H$16:$H$112) +SUMIF($E$16:$F$112,"*Đức*",$H$16:$H$112)/2 -SUMIF($E$16:$F$112,"Đức",$H$16:$H$112)/2 +SUMIF($E$16:$F$112,"All team",$H$16:$H$112)/5</f>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5325,11 +5331,11 @@
       </c>
       <c r="D10" s="3">
         <f ca="1">SUMIF($E$16:$F$112,"Huy",$G$16:$G$112) +SUMIF($E$16:$F$112,"*Huy*",$G$16:$G$112)/2 -SUMIF($E$16:$F$112,"Huy",$G$16:$G$112)/2 +SUMIF($E$16:$F$112,"All team",$G$16:$G$112)/5</f>
-        <v>48.3</v>
+        <v>50.8</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">SUMIF($E$16:$F$112,"Huy",$H$16:$H$112) +SUMIF($E$16:$F$112,"*Huy*",$H$16:$H$112)/2 -SUMIF($E$16:$F$112,"Huy",$H$16:$H$112)/2 +SUMIF($E$16:$F$112,"All team",$H$16:$H$112)/5</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5341,11 +5347,11 @@
       </c>
       <c r="D11" s="3">
         <f ca="1">SUMIF($E$16:$F$112,"Khánh",$G$16:$G$112) +SUMIF($E$16:$F$112,"*Khánh*",$G$16:$G$112)/2 -SUMIF($E$16:$F$112,"Khánh",$G$16:$G$112)/2 +SUMIF($E$16:$F$112,"All team",$G$16:$G$112)/5</f>
-        <v>36.799999999999997</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">SUMIF($E$16:$F$112,"Khánh",$H$16:$H$112) +SUMIF($E$16:$F$112,"*Khánh*",$H$16:$H$112)/2 -SUMIF($E$16:$F$112,"Khánh",$H$16:$H$112)/2 +SUMIF($E$16:$F$112,"All team",$H$16:$H$112)/5</f>
-        <v>37.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5357,11 +5363,11 @@
       </c>
       <c r="D12" s="3">
         <f ca="1">SUMIF($E$16:$F$112,"Tấn",$G$16:$G$112) +SUMIF($E$16:$F$112,"*Tấn*",$G$16:$G$112)/2 -SUMIF($E$16:$F$112,"Tấn",$G$16:$G$112)/2 +SUMIF($E$16:$F$112,"All team",$G$16:$G$112)/5</f>
-        <v>33.799999999999997</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">SUMIF($E$16:$F$112,"Tấn",$H$16:$H$112) +SUMIF($E$16:$F$112,"*Tấn*",$H$16:$H$112)/2 -SUMIF($E$16:$F$112,"Tấn",$H$16:$H$112)/2 +SUMIF($E$16:$F$112,"All team",$H$16:$H$112)/5</f>
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -6201,7 +6207,7 @@
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="44" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F24" s="44"/>
       <c r="G24" s="19">
@@ -6921,7 +6927,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J32" s="20">
         <v>0</v>
@@ -7060,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K34" s="20">
         <v>0</v>
@@ -7331,7 +7337,7 @@
       <c r="A37" s="57"/>
       <c r="B37" s="37"/>
       <c r="C37" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="44" t="s">
@@ -7427,7 +7433,7 @@
       <c r="A38" s="57"/>
       <c r="B38" s="37"/>
       <c r="C38" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="44" t="s">
@@ -7578,7 +7584,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="20">
         <v>0</v>
@@ -7674,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" s="20">
         <v>0</v>
@@ -8157,7 +8163,7 @@
         <v>10</v>
       </c>
       <c r="K46" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L46" s="20">
         <v>0</v>
@@ -8587,7 +8593,7 @@
         <v>3</v>
       </c>
       <c r="M51" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N51" s="20">
         <v>0</v>
@@ -8887,7 +8893,7 @@
       <c r="A55" s="57"/>
       <c r="B55" s="37"/>
       <c r="C55" s="48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D55" s="48"/>
       <c r="E55" s="44" t="s">
@@ -8983,7 +8989,7 @@
       <c r="A56" s="57"/>
       <c r="B56" s="37"/>
       <c r="C56" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D56" s="48"/>
       <c r="E56" s="44" t="s">
@@ -9079,11 +9085,11 @@
       <c r="A57" s="57"/>
       <c r="B57" s="37"/>
       <c r="C57" s="48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D57" s="48"/>
       <c r="E57" s="44" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F57" s="44"/>
       <c r="G57" s="19">
@@ -9213,7 +9219,7 @@
       <c r="A59" s="57"/>
       <c r="B59" s="37"/>
       <c r="C59" s="48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D59" s="48"/>
       <c r="E59" s="44" t="s">
@@ -9650,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="V63" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W63" s="20">
         <v>0</v>
@@ -9886,7 +9892,7 @@
         <v>3</v>
       </c>
       <c r="X66" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y66" s="20">
         <v>0</v>
@@ -10180,7 +10186,7 @@
         <v>2</v>
       </c>
       <c r="Z69" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA69" s="20">
         <v>0</v>
@@ -10249,7 +10255,7 @@
       <c r="A71" s="57"/>
       <c r="B71" s="37"/>
       <c r="C71" s="48" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D71" s="48"/>
       <c r="E71" s="44" t="s">
@@ -10314,7 +10320,7 @@
         <v>2</v>
       </c>
       <c r="Z71" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA71" s="20">
         <v>0</v>
@@ -10412,6 +10418,9 @@
       <c r="Z72" s="19">
         <v>3</v>
       </c>
+      <c r="AA72" s="1">
+        <v>3</v>
+      </c>
       <c r="AB72" s="20">
         <v>0</v>
       </c>
@@ -10636,7 +10645,7 @@
       </c>
       <c r="D75" s="48"/>
       <c r="E75" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F75" s="44"/>
       <c r="G75" s="19">
@@ -10703,7 +10712,7 @@
         <v>2</v>
       </c>
       <c r="AB75" s="19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AC75" s="20">
         <v>0</v>
@@ -10770,7 +10779,7 @@
       </c>
       <c r="D77" s="48"/>
       <c r="E77" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F77" s="44"/>
       <c r="G77" s="19">
@@ -10866,7 +10875,7 @@
       </c>
       <c r="D78" s="48"/>
       <c r="E78" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F78" s="44"/>
       <c r="G78" s="19">
@@ -10958,11 +10967,11 @@
       <c r="A79" s="57"/>
       <c r="B79" s="37"/>
       <c r="C79" s="48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D79" s="48"/>
       <c r="E79" s="44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F79" s="44"/>
       <c r="G79" s="19">
@@ -11054,7 +11063,7 @@
       <c r="A80" s="57"/>
       <c r="B80" s="37"/>
       <c r="C80" s="48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D80" s="48"/>
       <c r="E80" s="44" t="s">
@@ -11154,7 +11163,7 @@
       </c>
       <c r="D81" s="48"/>
       <c r="E81" s="44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F81" s="44"/>
       <c r="G81" s="19">
@@ -11250,7 +11259,7 @@
       </c>
       <c r="D82" s="48"/>
       <c r="E82" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F82" s="44"/>
       <c r="G82" s="19">
@@ -11346,7 +11355,7 @@
       </c>
       <c r="D83" s="48"/>
       <c r="E83" s="44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F83" s="44"/>
       <c r="G83" s="19">
@@ -11442,7 +11451,7 @@
       </c>
       <c r="D84" s="48"/>
       <c r="E84" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F84" s="44"/>
       <c r="G84" s="19">
@@ -11672,7 +11681,7 @@
       </c>
       <c r="D87" s="48"/>
       <c r="E87" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F87" s="44"/>
       <c r="G87" s="19">
@@ -12054,7 +12063,7 @@
       <c r="A91" s="57"/>
       <c r="B91" s="37"/>
       <c r="C91" s="48" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D91" s="48"/>
       <c r="E91" s="44" t="s">
@@ -12150,7 +12159,7 @@
       <c r="A92" s="57"/>
       <c r="B92" s="37"/>
       <c r="C92" s="48" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D92" s="48"/>
       <c r="E92" s="44" t="s">
@@ -12866,7 +12875,7 @@
       </c>
       <c r="D100" s="47"/>
       <c r="E100" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F100" s="44"/>
       <c r="G100" s="19">
@@ -12962,7 +12971,7 @@
       </c>
       <c r="D101" s="48"/>
       <c r="E101" s="44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F101" s="44"/>
       <c r="G101" s="19">
@@ -13150,7 +13159,7 @@
       <c r="A103" s="57"/>
       <c r="B103" s="40"/>
       <c r="C103" s="48" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D103" s="48"/>
       <c r="E103" s="44" t="s">
@@ -13246,7 +13255,7 @@
       <c r="A104" s="57"/>
       <c r="B104" s="40"/>
       <c r="C104" s="48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D104" s="48"/>
       <c r="E104" s="44" t="s">
@@ -14126,15 +14135,15 @@
       <c r="H113" s="44"/>
       <c r="I113" s="19">
         <f>SUM(I16:I17)+SUM(I19:I112)-I18</f>
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J113" s="19">
-        <f>SUM(J16:J30)+SUM(J32)+SUM(J34:J112)-J33+J31</f>
+        <f>SUM(J34:J112)</f>
         <v>182.5</v>
       </c>
       <c r="K113" s="19">
         <f>SUM(K16:K38)+SUM(K40:K112)+K39</f>
-        <v>172.5</v>
+        <v>175.5</v>
       </c>
       <c r="L113" s="19">
         <f>SUM(L16:L46)+SUM(L48:L112)-L47</f>
@@ -14142,7 +14151,7 @@
       </c>
       <c r="M113" s="19">
         <f>SUM(M16:M112)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N113" s="19">
         <f>SUM(N16:N51)+SUM(N53:N112)-N52</f>
@@ -14178,7 +14187,7 @@
       </c>
       <c r="V113" s="19">
         <f>SUM(V16:V112)</f>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W113" s="19">
         <f>SUM(W16:W112)</f>
@@ -14186,7 +14195,7 @@
       </c>
       <c r="X113" s="19">
         <f>SUM(X16:X112)</f>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y113" s="19">
         <f>SUM(Y66:Y112)+SUM(Y16:Y64)+Y65</f>
@@ -14194,15 +14203,15 @@
       </c>
       <c r="Z113" s="19">
         <f>SUM(Z16:Z112)</f>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AA113" s="19">
         <f>SUM(AA16:AA69)+SUM(AA71:AA112)+AA70</f>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB113" s="19">
         <f>SUM(AB16:AB112)</f>
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="AC113" s="19">
         <f>SUM(AC16:AC75)+SUM(AC77:AC112)-AC76</f>
@@ -14245,15 +14254,15 @@
       <c r="H114" s="44"/>
       <c r="I114" s="19">
         <f>SUM(I16:I17)+SUM(I19:I112)</f>
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J114" s="19">
-        <f>SUM(J16:J30)+SUM(J32)+SUM(J34:J112)</f>
+        <f>SUM(H34:H112)</f>
         <v>185</v>
       </c>
       <c r="K114" s="19">
         <f>SUM(K16:K38)+SUM(K40:K112)</f>
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L114" s="19">
         <f>SUM(L16:L46)+SUM(L48:L112)</f>
@@ -14261,7 +14270,7 @@
       </c>
       <c r="M114" s="19">
         <f>SUM(M16:M112)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N114" s="19">
         <f>SUM(N16:N51)+SUM(N53:N112)</f>
@@ -14296,7 +14305,7 @@
         <v>127</v>
       </c>
       <c r="V114" s="19">
-        <f>SUM(V16:V112)</f>
+        <f>SUM(H62:H112)</f>
         <v>127</v>
       </c>
       <c r="W114" s="19">
@@ -14304,7 +14313,7 @@
         <v>123</v>
       </c>
       <c r="X114" s="19">
-        <f>SUM(X16:X112)</f>
+        <f>SUM(H64:H112)</f>
         <v>123</v>
       </c>
       <c r="Y114" s="19">
@@ -14313,15 +14322,15 @@
       </c>
       <c r="Z114" s="19">
         <f>SUM(Z16:Z112)+AA68</f>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AA114" s="19">
         <f>SUM(AA16:AA69)+SUM(AA71:AA112)</f>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AB114" s="19">
         <f>SUM(AB16:AB112)</f>
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="AC114" s="19">
         <f>SUM(AC16:AC75)+SUM(AC77:AC112)</f>
@@ -14569,7 +14578,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="P114:R114 M113 V113 X113 Z113 AB113 AG114:AH114 AG113:AH113 O113:R113 T114:X114 T113 Z114 AB114 AE113" formulaRange="1"/>
+    <ignoredError sqref="P114:R114 M113 Z113 AB113 AG114:AH114 AG113:AH113 O113:R113 T114:U114 T113 Z114 AB114 AE113 W114" formulaRange="1"/>
     <ignoredError sqref="U113" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
@@ -14580,8 +14589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH109"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104:F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14701,7 +14710,7 @@
       </c>
       <c r="D8" s="3">
         <f ca="1">SUMIF($E$16:$F$107,"Đạt",$G$16:$G$107) +SUMIF($E$16:$F$107,"*Đạt*",$G$16:$G$107)/2 -SUMIF($E$16:$F$107,"Đạt",$G$16:$G$107)/2 +SUMIF($E$16:$F$107,"All team",$G$16:$G$107)/5</f>
-        <v>87.5</v>
+        <v>86.5</v>
       </c>
       <c r="E8" s="3">
         <f ca="1">SUMIF($E$16:$F$107,"Đạt",$H$16:$H$107) +SUMIF($E$16:$F$107,"*Đạt*",$H$16:$H$107)/2 -SUMIF($E$16:$F$107,"Đạt",$H$16:$H$107)/2 +SUMIF($E$16:$F$107,"All team",$H$16:$H$107)/5</f>
@@ -14718,11 +14727,11 @@
       </c>
       <c r="D9" s="3">
         <f ca="1">SUMIF($E$16:$F$107,"Đức",$G$16:$G$107) +SUMIF($E$16:$F$107,"*Đức*",$G$16:$G$107)/2 -SUMIF($E$16:$F$107,"Đức",$G$16:$G$107)/2 +SUMIF($E$16:$F$107,"All team",$G$16:$G$107)/5</f>
-        <v>33.5</v>
+        <v>38.5</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">SUMIF($E$16:$F$107,"Đức",$H$16:$H$107) +SUMIF($E$16:$F$107,"*Đức*",$H$16:$H$107)/2 -SUMIF($E$16:$F$107,"Đức",$H$16:$H$107)/2 +SUMIF($E$16:$F$107,"All team",$H$16:$H$107)/5</f>
-        <v>34.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -14735,11 +14744,11 @@
       </c>
       <c r="D10" s="3">
         <f ca="1">SUMIF($E$16:$F$107,"Huy",$G$16:$G$107) +SUMIF($E$16:$F$107,"*Huy*",$G$16:$G$107)/2 -SUMIF($E$16:$F$107,"Huy",$G$16:$G$107)/2 +SUMIF($E$16:$F$107,"All team",$G$16:$G$107)/5</f>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">SUMIF($E$16:$F$107,"Huy",$H$16:$H$107) +SUMIF($E$16:$F$107,"*Huy*",$H$16:$H$107)/2 -SUMIF($E$16:$F$107,"Huy",$H$16:$H$107)/2 +SUMIF($E$16:$F$107,"All team",$H$16:$H$107)/5</f>
-        <v>38.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -14752,11 +14761,11 @@
       </c>
       <c r="D11" s="3">
         <f ca="1">SUMIF($E$16:$F$107,"Khánh",$G$16:$G$107) +SUMIF($E$16:$F$107,"*Khánh*",$G$16:$G$107)/2 -SUMIF($E$16:$F$107,"Khánh",$G$16:$G$107)/2 +SUMIF($E$16:$F$107,"All team",$G$16:$G$107)/5</f>
-        <v>33.5</v>
+        <v>27.5</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">SUMIF($E$16:$F$107,"Khánh",$H$16:$H$107) +SUMIF($E$16:$F$107,"*Khánh*",$H$16:$H$107)/2 -SUMIF($E$16:$F$107,"Khánh",$H$16:$H$107)/2 +SUMIF($E$16:$F$107,"All team",$H$16:$H$107)/5</f>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -14769,11 +14778,11 @@
       </c>
       <c r="D12" s="3">
         <f ca="1">SUMIF($E$16:$F$107,"Tấn",$G$16:$G$107) +SUMIF($E$16:$F$107,"*Tấn*",$G$16:$G$107)/2 -SUMIF($E$16:$F$107,"Tấn",$G$16:$G$107)/2 +SUMIF($E$16:$F$107,"All team",$G$16:$G$107)/5</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">SUMIF($E$16:$F$107,"Tấn",$H$16:$H$107) +SUMIF($E$16:$F$107,"*Tấn*",$H$16:$H$107)/2 -SUMIF($E$16:$F$107,"Tấn",$H$16:$H$107)/2 +SUMIF($E$16:$F$107,"All team",$H$16:$H$107)/5</f>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -14784,7 +14793,7 @@
       <c r="C13" s="52"/>
       <c r="D13" s="5">
         <f ca="1">SUM(D8:D12)</f>
-        <v>224.5</v>
+        <v>220.5</v>
       </c>
       <c r="E13" s="5">
         <f ca="1">SUM(E8:E12)</f>
@@ -15032,7 +15041,7 @@
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
       <c r="E17" s="44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="19">
@@ -15180,7 +15189,7 @@
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
       <c r="E19" s="44" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="19">
@@ -15320,7 +15329,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="44" t="s">
@@ -15334,7 +15343,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="20">
         <v>0</v>
@@ -15436,7 +15445,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="20">
         <v>0</v>
@@ -15538,7 +15547,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="20">
         <v>0</v>
@@ -15626,7 +15635,7 @@
       <c r="A24" s="57"/>
       <c r="B24" s="60"/>
       <c r="C24" s="48" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="44" t="s">
@@ -15640,7 +15649,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="20">
         <v>0</v>
@@ -15728,11 +15737,11 @@
       <c r="A25" s="57"/>
       <c r="B25" s="60"/>
       <c r="C25" s="48" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="19">
@@ -15742,7 +15751,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="20">
         <v>0</v>
@@ -15830,7 +15839,7 @@
       <c r="A26" s="57"/>
       <c r="B26" s="60"/>
       <c r="C26" s="48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="44" t="s">
@@ -15844,7 +15853,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="20">
         <v>0</v>
@@ -15972,7 +15981,7 @@
       <c r="A28" s="57"/>
       <c r="B28" s="60"/>
       <c r="C28" s="48" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="44" t="s">
@@ -15986,7 +15995,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="20">
         <v>0</v>
@@ -16088,7 +16097,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="20">
         <v>0</v>
@@ -16190,7 +16199,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="20">
         <v>0</v>
@@ -16315,7 +16324,7 @@
       <c r="A32" s="57"/>
       <c r="B32" s="60"/>
       <c r="C32" s="48" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="42" t="s">
@@ -16323,13 +16332,13 @@
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="19">
         <v>2</v>
       </c>
       <c r="I32" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="20">
         <v>0</v>
@@ -16661,11 +16670,11 @@
       <c r="A36" s="57"/>
       <c r="B36" s="40"/>
       <c r="C36" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="48"/>
       <c r="E36" s="44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="19">
@@ -16763,7 +16772,7 @@
       <c r="A37" s="57"/>
       <c r="B37" s="40"/>
       <c r="C37" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="44" t="s">
@@ -16966,12 +16975,12 @@
     <row r="39" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A39" s="57"/>
       <c r="B39" s="40"/>
-      <c r="C39" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="48"/>
+      <c r="C39" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="47"/>
       <c r="E39" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="19">
@@ -17068,12 +17077,12 @@
     <row r="40" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A40" s="57"/>
       <c r="B40" s="40"/>
-      <c r="C40" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="48"/>
+      <c r="C40" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="47"/>
       <c r="E40" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="19">
@@ -17170,12 +17179,12 @@
     <row r="41" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A41" s="57"/>
       <c r="B41" s="40"/>
-      <c r="C41" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="48"/>
+      <c r="C41" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="47"/>
       <c r="E41" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F41" s="44"/>
       <c r="G41" s="19">
@@ -17272,10 +17281,10 @@
     <row r="42" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A42" s="57"/>
       <c r="B42" s="40"/>
-      <c r="C42" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="48"/>
+      <c r="C42" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="47"/>
       <c r="E42" s="44" t="s">
         <v>129</v>
       </c>
@@ -17374,10 +17383,10 @@
     <row r="43" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A43" s="57"/>
       <c r="B43" s="40"/>
-      <c r="C43" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="48"/>
+      <c r="C43" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="47"/>
       <c r="E43" s="42" t="s">
         <v>128</v>
       </c>
@@ -17477,11 +17486,11 @@
       <c r="A44" s="57"/>
       <c r="B44" s="40"/>
       <c r="C44" s="48" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="D44" s="48"/>
       <c r="E44" s="42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F44" s="43"/>
       <c r="G44" s="19">
@@ -17691,7 +17700,7 @@
       </c>
       <c r="F46" s="44"/>
       <c r="G46" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H46" s="19">
         <v>4</v>
@@ -17706,7 +17715,7 @@
         <v>4</v>
       </c>
       <c r="L46" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M46" s="20">
         <v>0</v>
@@ -17848,7 +17857,7 @@
         <v>3</v>
       </c>
       <c r="L48" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M48" s="20">
         <v>0</v>
@@ -17927,7 +17936,7 @@
       <c r="A49" s="57"/>
       <c r="B49" s="60"/>
       <c r="C49" s="48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="48"/>
       <c r="E49" s="44" t="s">
@@ -17935,7 +17944,7 @@
       </c>
       <c r="F49" s="44"/>
       <c r="G49" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H49" s="19">
         <v>4</v>
@@ -17956,7 +17965,7 @@
         <v>4</v>
       </c>
       <c r="N49" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O49" s="20">
         <v>0</v>
@@ -18069,7 +18078,7 @@
       <c r="A51" s="57"/>
       <c r="B51" s="60"/>
       <c r="C51" s="48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D51" s="48"/>
       <c r="E51" s="44" t="s">
@@ -18098,7 +18107,7 @@
         <v>4</v>
       </c>
       <c r="N51" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O51" s="20">
         <v>0</v>
@@ -18171,7 +18180,7 @@
       <c r="A52" s="57"/>
       <c r="B52" s="60"/>
       <c r="C52" s="48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="48"/>
       <c r="E52" s="44" t="s">
@@ -18206,7 +18215,7 @@
         <v>4</v>
       </c>
       <c r="P52" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q52" s="20">
         <v>0</v>
@@ -18313,7 +18322,7 @@
       <c r="A54" s="57"/>
       <c r="B54" s="60"/>
       <c r="C54" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="48"/>
       <c r="E54" s="44" t="s">
@@ -18415,11 +18424,11 @@
       <c r="A55" s="57"/>
       <c r="B55" s="60"/>
       <c r="C55" s="48" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D55" s="48"/>
       <c r="E55" s="44" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F55" s="44"/>
       <c r="G55" s="19">
@@ -18619,7 +18628,7 @@
       <c r="A57" s="57"/>
       <c r="B57" s="60"/>
       <c r="C57" s="48" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="D57" s="48"/>
       <c r="E57" s="44" t="s">
@@ -18666,7 +18675,7 @@
         <v>4</v>
       </c>
       <c r="T57" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U57" s="20">
         <v>0</v>
@@ -18721,7 +18730,7 @@
       <c r="A58" s="57"/>
       <c r="B58" s="60"/>
       <c r="C58" s="48" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="D58" s="48"/>
       <c r="E58" s="44" t="s">
@@ -18768,7 +18777,7 @@
         <v>3</v>
       </c>
       <c r="T58" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U58" s="20">
         <v>0</v>
@@ -18823,11 +18832,11 @@
       <c r="A59" s="57"/>
       <c r="B59" s="60"/>
       <c r="C59" s="48" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D59" s="48"/>
       <c r="E59" s="42" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="33">
@@ -18876,7 +18885,7 @@
         <v>3</v>
       </c>
       <c r="V59" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W59" s="20">
         <v>0</v>
@@ -18925,7 +18934,7 @@
       <c r="A60" s="57"/>
       <c r="B60" s="60"/>
       <c r="C60" s="48" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D60" s="48"/>
       <c r="E60" s="42" t="s">
@@ -19027,7 +19036,7 @@
       <c r="A61" s="57"/>
       <c r="B61" s="60"/>
       <c r="C61" s="48" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="D61" s="48"/>
       <c r="E61" s="44" t="s">
@@ -19169,7 +19178,7 @@
       <c r="A63" s="57"/>
       <c r="B63" s="60"/>
       <c r="C63" s="48" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="D63" s="48"/>
       <c r="E63" s="44" t="s">
@@ -19271,7 +19280,7 @@
       <c r="A64" s="57"/>
       <c r="B64" s="60"/>
       <c r="C64" s="48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D64" s="48"/>
       <c r="E64" s="44" t="s">
@@ -19373,7 +19382,7 @@
       <c r="A65" s="57"/>
       <c r="B65" s="60"/>
       <c r="C65" s="48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D65" s="48"/>
       <c r="E65" s="44" t="s">
@@ -19475,7 +19484,7 @@
       <c r="A66" s="57"/>
       <c r="B66" s="60"/>
       <c r="C66" s="48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D66" s="48"/>
       <c r="E66" s="44" t="s">
@@ -19577,7 +19586,7 @@
       <c r="A67" s="57"/>
       <c r="B67" s="60"/>
       <c r="C67" s="48" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D67" s="48"/>
       <c r="E67" s="44" t="s">
@@ -19679,7 +19688,7 @@
       <c r="A68" s="57"/>
       <c r="B68" s="60"/>
       <c r="C68" s="48" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="D68" s="48"/>
       <c r="E68" s="42" t="s">
@@ -19781,7 +19790,7 @@
       <c r="A69" s="57"/>
       <c r="B69" s="60"/>
       <c r="C69" s="48" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="D69" s="48"/>
       <c r="E69" s="42" t="s">
@@ -19795,67 +19804,67 @@
         <v>3</v>
       </c>
       <c r="I69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC69" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD69" s="20">
         <v>0</v>
@@ -20104,7 +20113,7 @@
         <v>3</v>
       </c>
       <c r="AD72" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE72" s="20">
         <v>0</v>
@@ -20169,7 +20178,7 @@
       <c r="A74" s="57"/>
       <c r="B74" s="60"/>
       <c r="C74" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D74" s="48"/>
       <c r="E74" s="44" t="s">
@@ -20271,7 +20280,7 @@
       <c r="A75" s="57"/>
       <c r="B75" s="60"/>
       <c r="C75" s="48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D75" s="48"/>
       <c r="E75" s="44" t="s">
@@ -20475,7 +20484,7 @@
       <c r="A77" s="57"/>
       <c r="B77" s="60"/>
       <c r="C77" s="48" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="D77" s="48"/>
       <c r="E77" s="44" t="s">
@@ -20616,12 +20625,12 @@
     <row r="79" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A79" s="57"/>
       <c r="B79" s="60"/>
-      <c r="C79" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D79" s="48"/>
+      <c r="C79" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="47"/>
       <c r="E79" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="33">
@@ -20718,12 +20727,12 @@
     <row r="80" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A80" s="57"/>
       <c r="B80" s="60"/>
-      <c r="C80" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D80" s="48"/>
+      <c r="C80" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" s="47"/>
       <c r="E80" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F80" s="44"/>
       <c r="G80" s="19">
@@ -20820,12 +20829,12 @@
     <row r="81" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A81" s="57"/>
       <c r="B81" s="60"/>
-      <c r="C81" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="D81" s="48"/>
+      <c r="C81" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" s="47"/>
       <c r="E81" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F81" s="44"/>
       <c r="G81" s="19">
@@ -20923,11 +20932,11 @@
       <c r="A82" s="57"/>
       <c r="B82" s="60"/>
       <c r="C82" s="48" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D82" s="48"/>
       <c r="E82" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F82" s="43"/>
       <c r="G82" s="19">
@@ -21025,7 +21034,7 @@
       <c r="A83" s="57"/>
       <c r="B83" s="60"/>
       <c r="C83" s="48" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="D83" s="48"/>
       <c r="E83" s="42" t="s">
@@ -21170,7 +21179,7 @@
       </c>
       <c r="D85" s="48"/>
       <c r="E85" s="44" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F85" s="44"/>
       <c r="G85" s="19">
@@ -21268,11 +21277,11 @@
       <c r="A86" s="57"/>
       <c r="B86" s="60"/>
       <c r="C86" s="48" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D86" s="48"/>
       <c r="E86" s="44" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F86" s="44"/>
       <c r="G86" s="19">
@@ -21370,7 +21379,7 @@
       <c r="A87" s="57"/>
       <c r="B87" s="60"/>
       <c r="C87" s="48" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D87" s="48"/>
       <c r="E87" s="44" t="s">
@@ -21574,7 +21583,7 @@
       <c r="A89" s="57"/>
       <c r="B89" s="60"/>
       <c r="C89" s="48" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="D89" s="48"/>
       <c r="E89" s="44" t="s">
@@ -21716,11 +21725,11 @@
       <c r="A91" s="57"/>
       <c r="B91" s="60"/>
       <c r="C91" s="48" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D91" s="48"/>
       <c r="E91" s="42" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F91" s="43"/>
       <c r="G91" s="33">
@@ -21730,79 +21739,79 @@
         <v>2</v>
       </c>
       <c r="I91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH91" s="20">
         <v>0</v>
@@ -21817,12 +21826,12 @@
     <row r="92" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A92" s="57"/>
       <c r="B92" s="60"/>
-      <c r="C92" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="D92" s="48"/>
+      <c r="C92" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" s="47"/>
       <c r="E92" s="44" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F92" s="44"/>
       <c r="G92" s="19">
@@ -21832,79 +21841,79 @@
         <v>2</v>
       </c>
       <c r="I92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG92" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH92" s="20">
         <v>0</v>
@@ -21919,10 +21928,10 @@
     <row r="93" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A93" s="57"/>
       <c r="B93" s="60"/>
-      <c r="C93" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D93" s="48"/>
+      <c r="C93" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="47"/>
       <c r="E93" s="44" t="s">
         <v>132</v>
       </c>
@@ -22022,7 +22031,7 @@
       <c r="A94" s="57"/>
       <c r="B94" s="60"/>
       <c r="C94" s="48" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D94" s="48"/>
       <c r="E94" s="44" t="s">
@@ -22124,7 +22133,7 @@
       <c r="A95" s="57"/>
       <c r="B95" s="61"/>
       <c r="C95" s="48" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="D95" s="48"/>
       <c r="E95" s="42" t="s">
@@ -22330,7 +22339,7 @@
       <c r="A97" s="57"/>
       <c r="B97" s="40"/>
       <c r="C97" s="48" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D97" s="48"/>
       <c r="E97" s="44" t="s">
@@ -22431,7 +22440,7 @@
     <row r="98" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B98" s="40"/>
       <c r="C98" s="48" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D98" s="48"/>
       <c r="E98" s="44" t="s">
@@ -22633,7 +22642,7 @@
     <row r="100" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B100" s="40"/>
       <c r="C100" s="48" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D100" s="48"/>
       <c r="E100" s="44" t="s">
@@ -22734,11 +22743,11 @@
     <row r="101" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B101" s="40"/>
       <c r="C101" s="48" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="D101" s="48"/>
       <c r="E101" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F101" s="43"/>
       <c r="G101" s="33">
@@ -22835,11 +22844,11 @@
     <row r="102" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B102" s="40"/>
       <c r="C102" s="48" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D102" s="48"/>
       <c r="E102" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F102" s="44"/>
       <c r="G102" s="19">
@@ -22936,11 +22945,11 @@
     <row r="103" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B103" s="40"/>
       <c r="C103" s="48" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D103" s="48"/>
       <c r="E103" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F103" s="44"/>
       <c r="G103" s="19">
@@ -23037,11 +23046,11 @@
     <row r="104" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B104" s="40"/>
       <c r="C104" s="48" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D104" s="48"/>
       <c r="E104" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F104" s="44"/>
       <c r="G104" s="19">
@@ -23138,7 +23147,7 @@
     <row r="105" spans="1:36" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B105" s="41"/>
       <c r="C105" s="48" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="D105" s="48"/>
       <c r="E105" s="44" t="s">
@@ -23452,20 +23461,20 @@
       <c r="F108" s="51"/>
       <c r="G108" s="44">
         <f>SUM(G16:G107)</f>
-        <v>224.5</v>
+        <v>220.5</v>
       </c>
       <c r="H108" s="44"/>
       <c r="I108" s="19">
         <f>SUM(I16:I17)+I19+SUM(I21:I107)-I20+I18</f>
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="J108" s="19">
         <f>SUM(J16:J26)+SUM(J28:J30)+SUM(J32:J107)+J27+J31</f>
-        <v>167.5</v>
+        <v>170.5</v>
       </c>
       <c r="K108" s="19">
         <f>SUM(K16:K107)</f>
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L108" s="19">
         <f>SUM(L16:L107)</f>
@@ -23473,7 +23482,7 @@
       </c>
       <c r="M108" s="19">
         <f>SUM(M16:M46)+SUM(M48:M107)-M47</f>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N108" s="19">
         <f>SUM(N16:N107)</f>
@@ -23481,79 +23490,79 @@
       </c>
       <c r="O108" s="19">
         <f>SUM(O16:O49)+SUM(O51:O107)+O50</f>
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P108" s="19">
         <f>SUM(P16:P107)</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q108" s="19">
         <f>SUM(Q16:Q52)+SUM(Q54:Q107)+Q53</f>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="R108" s="19">
         <f>SUM(R16:R107)</f>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S108" s="19">
         <f>SUM(S16:S107)-S48</f>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="T108" s="19">
         <f>SUM(T16:T107)</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U108" s="19">
         <f>SUM(U16:U107)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="V108" s="19">
         <f>SUM(V16:V107)</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W108" s="19">
         <f>SUM(W16:W107)</f>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="X108" s="19">
         <f>SUM(X16:X107)</f>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Y108" s="19">
         <f>SUM(Y16:Y61)+SUM(Y63:Y107)+Y62</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z108" s="19">
         <f>SUM(Z16:Z107)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA108" s="19">
         <f>SUM(AA16:AA107)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB108" s="19">
         <f>SUM(AB16:AB107)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC108" s="19">
         <f>SUM(AC16:AC107)</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AD108" s="19">
         <f>SUM(AD16:AD69)+SUM(AD71:AD107)-AD70</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AE108" s="19">
         <f>SUM(AE16:AE72)+SUM(AE74:AE77)+SUM(AE79:AE107)-AE73+AE78</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF108" s="19">
         <f>SUM(AF16:AF83)+SUM(AF85:AF107)+AF84</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG108" s="19">
         <f>SUM(AG16:AG89)+SUM(AG91:AG107)+AG90</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH108" s="19">
         <f>SUM(AH16:AH107)</f>
@@ -23582,16 +23591,16 @@
       </c>
       <c r="H109" s="44"/>
       <c r="I109" s="19">
-        <f>SUM(I16:I17)+I19+SUM(I21:I107)</f>
-        <v>186</v>
+        <f>SUM(I21:I107)</f>
+        <v>199</v>
       </c>
       <c r="J109" s="19">
         <f>SUM(J16:J26)+SUM(J28:J30)+SUM(J32:J107)</f>
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K109" s="19">
         <f>SUM(K16:K107)</f>
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L109" s="19">
         <f>SUM(L16:L107)</f>
@@ -23599,7 +23608,7 @@
       </c>
       <c r="M109" s="19">
         <f>SUM(M16:M46)+SUM(M48:M107)</f>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N109" s="19">
         <f>SUM(N16:N107)</f>
@@ -23607,90 +23616,90 @@
       </c>
       <c r="O109" s="19">
         <f>SUM(O16:O49)+SUM(O51:O107)</f>
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P109" s="19">
         <f>SUM(P16:P107)</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q109" s="19">
         <f>SUM(Q16:Q52)+SUM(Q54:Q107)</f>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R109" s="19">
-        <f>SUM(R16:R107)</f>
-        <v>122</v>
+        <f t="shared" ref="R109:X109" si="0">SUM(R16:R107)</f>
+        <v>125</v>
       </c>
       <c r="S109" s="19">
-        <f>SUM(S16:S107)</f>
-        <v>116</v>
+        <f t="shared" si="0"/>
+        <v>119</v>
       </c>
       <c r="T109" s="19">
-        <f>SUM(T16:T107)</f>
-        <v>116</v>
+        <f t="shared" si="0"/>
+        <v>117</v>
       </c>
       <c r="U109" s="19">
-        <f>SUM(U16:U107)</f>
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>112</v>
       </c>
       <c r="V109" s="19">
-        <f>SUM(V16:V107)-V63</f>
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
       <c r="W109" s="19">
-        <f>SUM(W16:W107)</f>
-        <v>103</v>
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
       <c r="X109" s="19">
-        <f>SUM(X16:X107)</f>
-        <v>103</v>
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
       <c r="Y109" s="19">
         <f>SUM(Y16:Y61)+SUM(Y63:Y107)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Z109" s="19">
         <f>SUM(Z16:Z107)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA109" s="19">
         <f>SUM(AA16:AA107)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB109" s="19">
         <f>SUM(AB16:AB107)-AB93+AC102</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC109" s="19">
         <f>SUM(AC16:AC107)</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AD109" s="19">
         <f>SUM(AD16:AD69)+SUM(AD71:AD107)</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AE109" s="19">
         <f>SUM(AE16:AE72)+SUM(AE74:AE77)+SUM(AE79:AE107)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF109" s="19">
         <f>SUM(AF16:AF83)+SUM(AF85:AF107)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG109" s="19">
         <f>SUM(AG16:AG89)+SUM(AG91:AG107)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AH109" s="19">
         <f>SUM(AH16:AH107)</f>
         <v>25</v>
       </c>
       <c r="AI109" s="19">
-        <f t="shared" ref="AI109:AJ109" si="0">SUM(AI16:AI107)</f>
+        <f t="shared" ref="AI109:AJ109" si="1">SUM(AI16:AI107)</f>
         <v>10</v>
       </c>
       <c r="AJ109" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -23913,8 +23922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E3D6DF-7E79-4196-8BF6-AF660F90573A}">
   <dimension ref="A1:BH101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:F39"/>
+    <sheetView topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24002,7 +24011,7 @@
     <row r="6" spans="1:60" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="66" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="66"/>
@@ -24033,11 +24042,11 @@
       </c>
       <c r="D8" s="3">
         <f ca="1">SUMIF($E$16:$F$41,"Đạt",$G$16:$G$41) +SUMIF($E$16:$F$41,"*Đạt*",$G$16:$G$41)/2 -SUMIF($E$16:$F$41,"Đạt",$G$16:$G$41)/2 +SUMIF($E$16:$F$41,"All team",$G$16:$G$41)/5</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3">
         <f ca="1">SUMIF($E$16:$F$41,"Đạt",$H$16:$H$41) +SUMIF($E$16:$F$41,"*Đạt*",$H$16:$H$41)/2 -SUMIF($E$16:$F$41,"Đạt",$H$16:$H$41)/2 +SUMIF($E$16:$F$41,"All team",$H$16:$H$41)/5</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -24116,11 +24125,11 @@
       <c r="C13" s="52"/>
       <c r="D13" s="5">
         <f ca="1">SUM(D8:D12)</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E13" s="5">
         <f ca="1">SUM(E8:E12)</f>
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:60" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24145,46 +24154,47 @@
         <v>55</v>
       </c>
       <c r="I15" s="18">
+        <v>45988</v>
+      </c>
+      <c r="J15" s="18">
         <v>45989</v>
       </c>
-      <c r="J15" s="18">
+      <c r="K15" s="18">
         <v>45990</v>
       </c>
-      <c r="K15" s="18">
+      <c r="L15" s="18">
         <v>45991</v>
       </c>
-      <c r="L15" s="18">
+      <c r="M15" s="18">
         <v>45992</v>
       </c>
-      <c r="M15" s="18">
+      <c r="N15" s="18">
         <v>45993</v>
       </c>
-      <c r="N15" s="18">
+      <c r="O15" s="18">
         <v>45994</v>
       </c>
-      <c r="O15" s="18">
+      <c r="P15" s="18">
         <v>45995</v>
       </c>
-      <c r="P15" s="18">
+      <c r="Q15" s="18">
         <v>45996</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="R15" s="18">
         <v>45997</v>
       </c>
-      <c r="R15" s="18">
+      <c r="S15" s="18">
         <v>45998</v>
       </c>
-      <c r="S15" s="18">
+      <c r="T15" s="18">
         <v>45999</v>
       </c>
-      <c r="T15" s="18">
+      <c r="U15" s="18">
         <v>46000</v>
       </c>
-      <c r="U15" s="18">
+      <c r="V15" s="18">
         <v>46001</v>
       </c>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
@@ -24231,10 +24241,10 @@
       <c r="H16" s="19">
         <v>10</v>
       </c>
-      <c r="I16" s="20">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
+      <c r="I16" s="19">
+        <v>10</v>
+      </c>
+      <c r="J16" s="20">
         <v>0</v>
       </c>
       <c r="K16" s="19">
@@ -24270,16 +24280,19 @@
       <c r="U16" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="48" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
       <c r="E17" s="44" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="19">
@@ -24288,10 +24301,10 @@
       <c r="H17" s="19">
         <v>4</v>
       </c>
-      <c r="I17" s="20">
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
+      <c r="I17" s="19">
+        <v>4</v>
+      </c>
+      <c r="J17" s="20">
         <v>0</v>
       </c>
       <c r="K17" s="19">
@@ -24327,8 +24340,11 @@
       <c r="U17" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -24337,10 +24353,10 @@
       <c r="F18" s="44"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="14">
-        <v>2</v>
-      </c>
-      <c r="J18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="14">
+        <v>2</v>
+      </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -24352,8 +24368,9 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
       <c r="U18" s="19"/>
-    </row>
-    <row r="19" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="48" t="s">
         <v>15</v>
@@ -24361,7 +24378,7 @@
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
       <c r="E19" s="44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="19">
@@ -24370,10 +24387,10 @@
       <c r="H19" s="19">
         <v>3</v>
       </c>
-      <c r="I19" s="20">
-        <v>0</v>
-      </c>
-      <c r="J19" s="19">
+      <c r="I19" s="19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="20">
         <v>0</v>
       </c>
       <c r="K19" s="19">
@@ -24409,8 +24426,11 @@
       <c r="U19" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="40"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -24419,10 +24439,10 @@
       <c r="F20" s="44"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="14">
-        <v>1</v>
-      </c>
-      <c r="J20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -24434,18 +24454,19 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
-    </row>
-    <row r="21" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="19">
@@ -24457,10 +24478,10 @@
       <c r="I21" s="19">
         <v>2</v>
       </c>
-      <c r="J21" s="20">
-        <v>0</v>
-      </c>
-      <c r="K21" s="19">
+      <c r="J21" s="19">
+        <v>1</v>
+      </c>
+      <c r="K21" s="20">
         <v>0</v>
       </c>
       <c r="L21" s="19">
@@ -24493,16 +24514,19 @@
       <c r="U21" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="48" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="44" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="19">
@@ -24514,10 +24538,10 @@
       <c r="I22" s="19">
         <v>2</v>
       </c>
-      <c r="J22" s="20">
-        <v>0</v>
-      </c>
-      <c r="K22" s="19">
+      <c r="J22" s="19">
+        <v>1</v>
+      </c>
+      <c r="K22" s="20">
         <v>0</v>
       </c>
       <c r="L22" s="19">
@@ -24550,8 +24574,11 @@
       <c r="U22" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="48" t="s">
@@ -24571,10 +24598,10 @@
       <c r="I23" s="19">
         <v>10</v>
       </c>
-      <c r="J23" s="20">
-        <v>0</v>
-      </c>
-      <c r="K23" s="19">
+      <c r="J23" s="19">
+        <v>9</v>
+      </c>
+      <c r="K23" s="20">
         <v>0</v>
       </c>
       <c r="L23" s="19">
@@ -24607,18 +24634,21 @@
       <c r="U23" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F24" s="44"/>
       <c r="G24" s="19">
@@ -24633,10 +24663,10 @@
       <c r="J24" s="19">
         <v>1</v>
       </c>
-      <c r="K24" s="20">
-        <v>0</v>
-      </c>
-      <c r="L24" s="19">
+      <c r="K24" s="19">
+        <v>1</v>
+      </c>
+      <c r="L24" s="20">
         <v>0</v>
       </c>
       <c r="M24" s="19">
@@ -24666,16 +24696,19 @@
       <c r="U24" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="40"/>
       <c r="C25" s="48" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="44" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="19">
@@ -24690,10 +24723,10 @@
       <c r="J25" s="19">
         <v>2</v>
       </c>
-      <c r="K25" s="20">
-        <v>0</v>
-      </c>
-      <c r="L25" s="19">
+      <c r="K25" s="19">
+        <v>2</v>
+      </c>
+      <c r="L25" s="20">
         <v>0</v>
       </c>
       <c r="M25" s="19">
@@ -24723,8 +24756,11 @@
       <c r="U25" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
       <c r="C26" s="48" t="s">
@@ -24747,10 +24783,10 @@
       <c r="J26" s="19">
         <v>10</v>
       </c>
-      <c r="K26" s="20">
-        <v>0</v>
-      </c>
-      <c r="L26" s="19">
+      <c r="K26" s="19">
+        <v>10</v>
+      </c>
+      <c r="L26" s="20">
         <v>0</v>
       </c>
       <c r="M26" s="19">
@@ -24780,14 +24816,17 @@
       <c r="U26" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V26" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="44" t="s">
@@ -24813,12 +24852,12 @@
         <v>5</v>
       </c>
       <c r="M27" s="19">
-        <v>5</v>
-      </c>
-      <c r="N27" s="20">
-        <v>0</v>
-      </c>
-      <c r="O27" s="19">
+        <v>4</v>
+      </c>
+      <c r="N27" s="19">
+        <v>2</v>
+      </c>
+      <c r="O27" s="20">
         <v>0</v>
       </c>
       <c r="P27" s="19">
@@ -24839,12 +24878,15 @@
       <c r="U27" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="60"/>
       <c r="C28" s="48" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="44" t="s">
@@ -24872,13 +24914,13 @@
       <c r="M28" s="19">
         <v>5</v>
       </c>
-      <c r="N28" s="20">
-        <v>0</v>
-      </c>
-      <c r="O28" s="33">
-        <v>0</v>
-      </c>
-      <c r="P28" s="19">
+      <c r="N28" s="19">
+        <v>3</v>
+      </c>
+      <c r="O28" s="20">
+        <v>0</v>
+      </c>
+      <c r="P28" s="33">
         <v>0</v>
       </c>
       <c r="Q28" s="19">
@@ -24896,8 +24938,11 @@
       <c r="U28" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V28" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="60"/>
       <c r="C29" s="62"/>
@@ -24911,22 +24956,23 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
-      <c r="N29" s="12">
-        <v>3</v>
-      </c>
-      <c r="O29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="12">
+        <v>3</v>
+      </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
-    </row>
-    <row r="30" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V29" s="19"/>
+    </row>
+    <row r="30" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="60"/>
       <c r="C30" s="48" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="44" t="s">
@@ -24963,10 +25009,10 @@
       <c r="P30" s="19">
         <v>5</v>
       </c>
-      <c r="Q30" s="20">
-        <v>0</v>
-      </c>
-      <c r="R30" s="19">
+      <c r="Q30" s="19">
+        <v>3</v>
+      </c>
+      <c r="R30" s="20">
         <v>0</v>
       </c>
       <c r="S30" s="19">
@@ -24978,12 +25024,15 @@
       <c r="U30" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="60"/>
       <c r="C31" s="48" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="44" t="s">
@@ -24991,39 +25040,39 @@
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="19">
+        <v>9</v>
+      </c>
+      <c r="H31" s="19">
         <v>7</v>
       </c>
-      <c r="H31" s="19">
-        <v>5</v>
-      </c>
       <c r="I31" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J31" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L31" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M31" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N31" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O31" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P31" s="19">
         <v>5</v>
       </c>
-      <c r="Q31" s="20">
-        <v>0</v>
-      </c>
-      <c r="S31" s="19">
+      <c r="Q31" s="19">
+        <v>1</v>
+      </c>
+      <c r="R31" s="20">
         <v>0</v>
       </c>
       <c r="T31" s="19">
@@ -25032,8 +25081,11 @@
       <c r="U31" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="60"/>
       <c r="C32" s="62"/>
@@ -25050,15 +25102,16 @@
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="12">
-        <v>2</v>
-      </c>
-      <c r="R32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="12">
+        <v>2</v>
+      </c>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V32" s="19"/>
+    </row>
+    <row r="33" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="61"/>
       <c r="C33" s="48" t="s">
@@ -25099,10 +25152,10 @@
       <c r="P33" s="19">
         <v>10</v>
       </c>
-      <c r="Q33" s="20">
-        <v>0</v>
-      </c>
-      <c r="R33" s="19">
+      <c r="Q33" s="19">
+        <v>10</v>
+      </c>
+      <c r="R33" s="20">
         <v>0</v>
       </c>
       <c r="S33" s="19">
@@ -25114,18 +25167,21 @@
       <c r="U33" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F34" s="44"/>
       <c r="G34" s="19">
@@ -25161,10 +25217,10 @@
       <c r="Q34" s="19">
         <v>5</v>
       </c>
-      <c r="R34" s="20">
-        <v>0</v>
-      </c>
-      <c r="S34" s="19">
+      <c r="R34" s="19">
+        <v>5</v>
+      </c>
+      <c r="S34" s="20">
         <v>0</v>
       </c>
       <c r="T34" s="19">
@@ -25173,16 +25229,19 @@
       <c r="U34" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V34" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="41"/>
       <c r="C35" s="48" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="44" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F35" s="44"/>
       <c r="G35" s="19">
@@ -25218,10 +25277,10 @@
       <c r="Q35" s="19">
         <v>5</v>
       </c>
-      <c r="R35" s="20">
-        <v>0</v>
-      </c>
-      <c r="S35" s="19">
+      <c r="R35" s="19">
+        <v>5</v>
+      </c>
+      <c r="S35" s="20">
         <v>0</v>
       </c>
       <c r="T35" s="19">
@@ -25230,14 +25289,17 @@
       <c r="U35" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="39" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D36" s="48"/>
       <c r="E36" s="44" t="s">
@@ -25280,21 +25342,24 @@
       <c r="R36" s="19">
         <v>2</v>
       </c>
-      <c r="S36" s="20">
-        <v>0</v>
-      </c>
-      <c r="T36" s="19">
+      <c r="S36" s="19">
+        <v>2</v>
+      </c>
+      <c r="T36" s="20">
         <v>0</v>
       </c>
       <c r="U36" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="41"/>
       <c r="C37" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="44" t="s">
@@ -25337,27 +25402,30 @@
       <c r="R37" s="19">
         <v>2</v>
       </c>
-      <c r="S37" s="20">
-        <v>0</v>
-      </c>
-      <c r="T37" s="19">
+      <c r="S37" s="19">
+        <v>2</v>
+      </c>
+      <c r="T37" s="20">
         <v>0</v>
       </c>
       <c r="U37" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="V37" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="19">
@@ -25399,22 +25467,25 @@
       <c r="S38" s="19">
         <v>3</v>
       </c>
-      <c r="T38" s="20">
-        <v>0</v>
-      </c>
-      <c r="U38" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="T38" s="19">
+        <v>3</v>
+      </c>
+      <c r="U38" s="20">
+        <v>0</v>
+      </c>
+      <c r="V38" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="41"/>
       <c r="C39" s="48" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="44" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="19">
@@ -25456,20 +25527,23 @@
       <c r="S39" s="19">
         <v>3</v>
       </c>
-      <c r="T39" s="20">
-        <v>0</v>
-      </c>
-      <c r="U39" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="T39" s="19">
+        <v>3</v>
+      </c>
+      <c r="U39" s="20">
+        <v>0</v>
+      </c>
+      <c r="V39" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="50" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D40" s="48"/>
       <c r="E40" s="44" t="s">
@@ -25518,15 +25592,18 @@
       <c r="T40" s="19">
         <v>5</v>
       </c>
-      <c r="U40" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="U40" s="19">
+        <v>5</v>
+      </c>
+      <c r="V40" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="50"/>
       <c r="C41" s="48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D41" s="48"/>
       <c r="E41" s="44" t="s">
@@ -25575,11 +25652,14 @@
       <c r="T41" s="19">
         <v>5</v>
       </c>
-      <c r="U41" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="U41" s="19">
+        <v>5</v>
+      </c>
+      <c r="V41" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B42" s="65" t="s">
         <v>12</v>
       </c>
@@ -25591,63 +25671,67 @@
       <c r="F42" s="51"/>
       <c r="G42" s="44">
         <f>SUM(G16:G41)</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H42" s="44"/>
       <c r="I42" s="19">
-        <f>SUM(I16:I17)+I19+SUM(I21:I41)-I18-I20</f>
-        <v>84</v>
+        <f>SUM(I16:I41)</f>
+        <v>106</v>
       </c>
       <c r="J42" s="19">
-        <f>SUM(J16:J41)</f>
-        <v>73</v>
+        <f>SUM(J21:J41)</f>
+        <v>86</v>
       </c>
       <c r="K42" s="19">
         <f>SUM(K16:K41)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L42" s="19">
         <f>SUM(L16:L41)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M42" s="19">
         <f>SUM(M16:M41)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N42" s="19">
-        <f>SUM(N16:N28)+SUM(N30:N41)+N29</f>
-        <v>53</v>
+        <f>SUM(N16:N41)</f>
+        <v>57</v>
       </c>
       <c r="O42" s="19">
-        <f>SUM(O16:O41)</f>
-        <v>50</v>
+        <f>SUM(O16:O28)+SUM(O30:O41)+O29</f>
+        <v>55</v>
       </c>
       <c r="P42" s="19">
         <f>SUM(P16:P41)</f>
         <v>50</v>
       </c>
       <c r="Q42" s="19">
-        <f>SUM(Q16:Q31)+SUM(Q33:Q41)+Q32</f>
+        <f>SUM(Q16:Q41)</f>
+        <v>44</v>
+      </c>
+      <c r="R42" s="19">
+        <f>SUM(R16:R31)+SUM(R33:R41)+R32</f>
         <v>32</v>
-      </c>
-      <c r="R42" s="19">
-        <f>SUM(R16:R41)</f>
-        <v>20</v>
       </c>
       <c r="S42" s="19">
         <f>SUM(S16:S41)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T42" s="19">
         <f>SUM(T16:T41)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U42" s="19">
         <f>SUM(U16:U41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="V42" s="19">
+        <f>SUM(V16:V41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
       <c r="D43" s="65"/>
@@ -25657,59 +25741,63 @@
       <c r="F43" s="51"/>
       <c r="G43" s="44">
         <f>SUM(H16:H41)</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H43" s="44"/>
       <c r="I43" s="19">
-        <f>SUM(I16:I17)+I19+SUM(I21:I41)</f>
-        <v>87</v>
+        <f>SUM(I16:I41)</f>
+        <v>106</v>
       </c>
       <c r="J43" s="19">
-        <f t="shared" ref="J43:T43" si="0">SUM(J16:J41)</f>
-        <v>73</v>
+        <f>SUM(J16:J17)+J19+SUM(H21:H41)</f>
+        <v>89</v>
       </c>
       <c r="K43" s="19">
+        <f>SUM(K16:K41)</f>
+        <v>75</v>
+      </c>
+      <c r="L43" s="19">
+        <f>SUM(L16:L41)</f>
+        <v>62</v>
+      </c>
+      <c r="M43" s="19">
+        <f t="shared" ref="M43:U43" si="0">SUM(M16:M41)</f>
+        <v>61</v>
+      </c>
+      <c r="N43" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="L43" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="M43" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="N43" s="19">
-        <f>SUM(N16:N28)+SUM(N30:N41)</f>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O43" s="19">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>SUM(O16:O28)+SUM(O30:O41)</f>
+        <v>52</v>
       </c>
       <c r="P43" s="19">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="Q43" s="19">
-        <f>SUM(Q16:Q31)+SUM(Q33:Q41)</f>
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R43" s="19">
+        <f>SUM(R16:R31)+SUM(R33:R41)</f>
         <v>30</v>
       </c>
-      <c r="R43" s="19">
+      <c r="S43" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="S43" s="19">
+      <c r="T43" s="19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T43" s="19">
+      <c r="U43" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="U43" s="19">
-        <f>SUM(U17:U41)</f>
+      <c r="V43" s="19">
+        <f>SUM(V17:V41)</f>
         <v>0</v>
       </c>
     </row>
@@ -25807,8 +25895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25901,35 +25989,35 @@
       </c>
       <c r="D4" s="24">
         <f ca="1">'Sprint 1'!$D$9</f>
-        <v>39.299999999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E4" s="24">
         <f ca="1">'Sprint 1'!$E$9</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="24">
         <f ca="1">'Sprint 1'!$D$10</f>
-        <v>48.3</v>
+        <v>50.8</v>
       </c>
       <c r="G4" s="24">
         <f ca="1">'Sprint 1'!$E$10</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" s="24">
         <f ca="1">'Sprint 1'!$D$11</f>
-        <v>36.799999999999997</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="I4" s="24">
         <f ca="1">'Sprint 1'!$E$11</f>
-        <v>37.5</v>
+        <v>35.5</v>
       </c>
       <c r="J4" s="24">
         <f ca="1">'Sprint 1'!$D$12</f>
-        <v>33.799999999999997</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="K4" s="24">
         <f ca="1">'Sprint 1'!$E$12</f>
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -25938,7 +26026,7 @@
       </c>
       <c r="B5" s="24">
         <f ca="1">'Sprint 2'!$D$8</f>
-        <v>87.5</v>
+        <v>86.5</v>
       </c>
       <c r="C5" s="24">
         <f ca="1">'Sprint 2'!$E$8</f>
@@ -25946,35 +26034,35 @@
       </c>
       <c r="D5" s="24">
         <f ca="1">'Sprint 2'!$D$9</f>
-        <v>33.5</v>
+        <v>38.5</v>
       </c>
       <c r="E5" s="24">
         <f ca="1">'Sprint 2'!$E$9</f>
-        <v>34.5</v>
+        <v>39.5</v>
       </c>
       <c r="F5" s="24">
         <f ca="1">'Sprint 2'!$D$10</f>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G5" s="24">
         <f ca="1">'Sprint 2'!$E$10</f>
-        <v>38.5</v>
+        <v>33.5</v>
       </c>
       <c r="H5" s="24">
         <f ca="1">'Sprint 2'!$D$11</f>
-        <v>33.5</v>
+        <v>27.5</v>
       </c>
       <c r="I5" s="24">
         <f ca="1">'Sprint 2'!$E$11</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5" s="24">
         <f ca="1">'Sprint 2'!$D$12</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5" s="24">
         <f ca="1">'Sprint 2'!$E$12</f>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -25983,11 +26071,11 @@
       </c>
       <c r="B6" s="24">
         <f ca="1">'Sprint 3'!$D$8</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="24">
         <f ca="1">'Sprint 3'!$E$8</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="24">
         <f ca="1">'Sprint 3'!$D$9</f>
@@ -26028,43 +26116,43 @@
       </c>
       <c r="B7" s="25">
         <f t="shared" ref="B7:K7" ca="1" si="0">SUM(B4:B6)</f>
-        <v>197.8</v>
+        <v>198.8</v>
       </c>
       <c r="C7" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>184.5</v>
+        <v>186.5</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>89.8</v>
+        <v>92.3</v>
       </c>
       <c r="E7" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>93.5</v>
+        <v>96.5</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>103.8</v>
+        <v>101.3</v>
       </c>
       <c r="G7" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>104.5</v>
+        <v>102.5</v>
       </c>
       <c r="H7" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>86.8</v>
+        <v>78.8</v>
       </c>
       <c r="I7" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>85.5</v>
+        <v>81.5</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>81.8</v>
+        <v>86.8</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -26080,7 +26168,7 @@
       </c>
       <c r="C10" s="29">
         <f ca="1">SUMIF($B$3:$K$3,"Thực tế",$B$7:$K$7)</f>
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -26089,7 +26177,7 @@
       </c>
       <c r="C11" s="31">
         <f ca="1">SUMIF($B$3:$K$3,"Ước tính",$B$7:$K$7)</f>
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
